--- a/イベント登録_単体テスト.xlsx
+++ b/イベント登録_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F225B617-92CA-460C-950B-79702FC267A2}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3D887F-FE03-4FF2-950E-64E4241CBDE6}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント登録" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -110,9 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「10文字以下にしてください」の注意分の表示</t>
-  </si>
-  <si>
     <t>初期値は空欄</t>
   </si>
   <si>
@@ -169,19 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.半角英数字のみ入力する</t>
-    <rPh sb="2" eb="4">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>異常系</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
@@ -298,19 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.「パスワード」に10文字以上入力する</t>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「このフィールドに入力してください」と表示</t>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
@@ -486,38 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「内容」はひらがな、漢字、カタカナ、半角数字、記号、全角スペース、空白の入力可</t>
-    <rPh sb="1" eb="3">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「写真」は半角英数字のみ入力可</t>
-    <rPh sb="1" eb="3">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「タイトル」が入力必須項目か確認</t>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
@@ -748,16 +687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.「写真」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「＋」ボタンを押下後、イベント登録画面に遷移</t>
     <rPh sb="7" eb="9">
       <t>オウカ</t>
@@ -798,14 +727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「30文字以下にしてください」の注意分の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「500文字以下にしてください」の注意分の表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択された写真がプレビューエリアに表示</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -819,22 +740,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント登録確認画面に遷移</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベント登録確認画面</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -1202,6 +1107,219 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30文字に制御される</t>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500文字に制御される</t>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーから選択可</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.写真を5枚以上選択する</t>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」を未選択にする</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「内容」はテキストの入力可か</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.テキスト入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄でも可</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」は写真や画像ファイルしか選択できないよう制限されているか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」は複数枚選択することができるか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」を複数枚選択する</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数枚選択することができる</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.写真や画像を選択</t>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大5枚選択できます</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account-regist.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直打ちする</t>
+    <rPh sb="0" eb="2">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、event-regist.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、event-regist-confirm.phpをURL</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1807,7 +1925,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A59:I62" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A61:I64" headerRowCount="0" totalsRowShown="0" headerRowDxfId="32">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="31" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="29"/>
@@ -2174,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="E10" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2195,45 +2313,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2274,16 +2392,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2414,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2300,20 +2422,28 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2322,7 +2452,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2330,20 +2460,28 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2352,7 +2490,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2361,23 +2499,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2386,7 +2528,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2395,23 +2537,27 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2420,7 +2566,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2429,23 +2575,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2454,7 +2604,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2463,23 +2613,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2488,7 +2642,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2497,23 +2651,27 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2522,7 +2680,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2531,23 +2689,27 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2556,7 +2718,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2565,23 +2727,27 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2597,23 +2763,27 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2629,23 +2799,27 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2661,23 +2835,27 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2693,22 +2871,24 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45993</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
@@ -2725,23 +2905,27 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2750,7 +2934,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2759,23 +2943,27 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2783,9 +2971,7 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2793,23 +2979,27 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="G40" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2825,22 +3015,24 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45993</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
@@ -2849,9 +3041,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2859,23 +3049,27 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2884,7 +3078,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2893,23 +3087,27 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2918,7 +3116,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2927,23 +3125,27 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2952,7 +3154,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2961,23 +3163,27 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2986,7 +3192,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2995,23 +3201,27 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3020,7 +3230,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3029,23 +3239,27 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3054,12 +3268,88 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2">
+        <v>25</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3076,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAC509-E636-4BFE-BD39-D45C4E1E86E3}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3097,45 +3387,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3167,23 +3457,27 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3192,7 +3486,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3201,23 +3495,27 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3226,7 +3524,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3235,23 +3533,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3260,7 +3562,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3269,23 +3571,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3294,7 +3600,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3303,23 +3609,27 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3328,7 +3638,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3337,23 +3647,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3362,7 +3676,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3371,23 +3685,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3396,7 +3714,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3405,23 +3723,27 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3430,7 +3752,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3439,23 +3761,27 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3464,12 +3790,50 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3485,10 +3849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3506,45 +3870,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45789</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3565,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
@@ -3576,23 +3940,27 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3601,7 +3969,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3610,23 +3978,27 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3635,7 +4007,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3644,23 +4016,27 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3669,7 +4045,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3678,23 +4054,27 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3702,10 +4082,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
@@ -3718,12 +4098,50 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/イベント登録_単体テスト.xlsx
+++ b/イベント登録_単体テスト.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3D887F-FE03-4FF2-950E-64E4241CBDE6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント登録" sheetId="1" r:id="rId1"/>
@@ -2294,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3851,7 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E7FCF0-B1A5-474A-B569-B8E95D831D94}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/イベント登録_単体テスト.xlsx
+++ b/イベント登録_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF3D887F-FE03-4FF2-950E-64E4241CBDE6}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{559F9689-39DF-405F-8D5E-9AFB87DE0D31}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1320,6 +1320,29 @@
     <t>1.ログインしない状態で、event-regist-confirm.phpをURL</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「内容」に文字数カウントの表示</t>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0/500の表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1416,7 +1439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1445,6 +1468,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2292,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E53"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3350,6 +3376,44 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="4">
+        <v>45992</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
